--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1277951.934179392</v>
+        <v>1275699.854468185</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228319</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +662,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +674,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.296101769923409</v>
+        <v>274.7944255145757</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -835,7 +835,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>94.93823639100955</v>
+        <v>245.5943719204602</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>357.517248291311</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>352.506929108954</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1063,16 +1063,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>153.3276936306694</v>
+        <v>131.3542190999258</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>243.2012226245562</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>108.9812949757285</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1294,16 +1294,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991771</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.9389132689145</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>53.08838020946272</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.29550035394044</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1774,13 +1774,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>186.9166231085232</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>197.5531614304995</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>100.9025715636462</v>
       </c>
     </row>
     <row r="23">
@@ -2366,19 +2366,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>143.3175246302654</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>123.7971820797026</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>108.5813113004308</v>
       </c>
     </row>
     <row r="29">
@@ -2843,7 +2843,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.24347904696366</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.0280580960838</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>9.146142788179397</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>156.2292142534452</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634798</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3661,16 +3661,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3901,10 +3901,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3913,10 +3913,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3943,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>155.0500112286346</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>25.7319404949734</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4144,16 +4144,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>133.983849834638</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>72.26558381699921</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1303.529887077737</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>934.5673701373257</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="Y2" t="n">
-        <v>1690.129727141859</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4398,37 +4398,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>624.6477645191717</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C4" t="n">
-        <v>624.6477645191717</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D4" t="n">
-        <v>624.6477645191717</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4507,13 +4507,13 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
         <v>1424.011591242373</v>
@@ -4522,16 +4522,16 @@
         <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>1169.327103036487</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W4" t="n">
-        <v>1073.429894560719</v>
+        <v>1175.936468090393</v>
       </c>
       <c r="X4" t="n">
-        <v>845.4403436627018</v>
+        <v>1175.936468090393</v>
       </c>
       <c r="Y4" t="n">
-        <v>624.6477645191717</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1904.487375535337</v>
+        <v>1979.06775675439</v>
       </c>
       <c r="C5" t="n">
-        <v>1904.487375535337</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D5" t="n">
-        <v>1546.221676928587</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796417</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535337</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="Y5" t="n">
-        <v>1904.487375535337</v>
+        <v>2365.667596818511</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4620,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>630.8037095364738</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>461.8675266085669</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>311.7508871962312</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1550.651474445222</v>
+        <v>1794.613518694628</v>
       </c>
       <c r="V7" t="n">
-        <v>1550.651474445222</v>
+        <v>1539.929030488741</v>
       </c>
       <c r="W7" t="n">
-        <v>1261.234304408261</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="X7" t="n">
-        <v>1033.244753510244</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>812.4521743667135</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1878.169188758593</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1509.206671818182</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1150.940973211431</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>765.1527206131871</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>354.1668158235795</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4820,34 +4820,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3105.233036999167</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>3105.233036999167</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265599</v>
+        <v>3105.233036999167</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>3105.233036999167</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734405</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758593</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>403.1511359853714</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>234.2149530574644</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>234.2149530574644</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>234.2149530574644</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4990,22 +4990,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783662</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1161.740577577775</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>872.3234075408147</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>644.3338566427974</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>584.799600815611</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5036,28 +5036,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5115,28 +5115,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3556038098242</v>
+        <v>808.8888553856866</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>639.9526724577797</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>639.9526724577797</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>492.0395788753866</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>345.1496313774762</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>177.9535320923562</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5224,25 +5224,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924459</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718572</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783594</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640064</v>
+        <v>990.5373202159263</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,19 +5264,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5285,31 +5285,31 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,22 +5349,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
         <v>2001.151557821488</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>560.7825789706076</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>391.8463960427007</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D16" t="n">
-        <v>241.729756630365</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797187</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2243.991523718104</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T16" t="n">
-        <v>2024.390058741045</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="U16" t="n">
-        <v>1735.314832085242</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V16" t="n">
-        <v>1480.630343879355</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W16" t="n">
-        <v>1191.213173842395</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X16" t="n">
-        <v>963.2236229443774</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y16" t="n">
-        <v>742.4310438008473</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831766</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1708.43867092217</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5732,49 +5732,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="C22" t="n">
-        <v>407.9027098310023</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D22" t="n">
-        <v>407.9027098310023</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>814.372855255613</v>
       </c>
     </row>
     <row r="23">
@@ -5981,49 +5981,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
         <v>3467.980956852889</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>945.4026036630049</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>776.466420735098</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>776.466420735098</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6203,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597619</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597619</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>411.9631215597619</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>244.7670222746419</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,52 +6449,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597619</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597619</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>411.9631215597619</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G31" t="n">
-        <v>244.7670222746419</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H31" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2389.141387573227</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2389.141387573227</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2169.539922596168</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1880.464695940366</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1625.780207734479</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1336.363037697518</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="32">
@@ -6680,40 +6680,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D34" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>244.7670222746419</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>103.0551911168399</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="38">
@@ -7160,64 +7160,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,31 +7397,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,31 +7430,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7588,31 +7588,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U43" t="n">
-        <v>2044.506784258106</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="44">
@@ -7640,28 +7640,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>945.402603663004</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C46" t="n">
-        <v>776.4664207350971</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D46" t="n">
-        <v>626.3497813227614</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E46" t="n">
-        <v>478.4366877403683</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
-        <v>478.4366877403683</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>311.2405884552482</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7831,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.402603663004</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-3.84283301942238e-13</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>56.99921249228342</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>99.26785128072092</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,19 +23941,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>54.58448189332847</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>62.35543909864963</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>117.6820817884485</v>
       </c>
     </row>
     <row r="23">
@@ -24266,7 +24266,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,10 +24370,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>3.116438016303732</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>57.229103921942</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24455,7 +24455,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>110.003342051664</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.131767663157994</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24932,7 +24932,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0.5874149221285734</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25166,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>62.35543909864958</v>
       </c>
     </row>
     <row r="38">
@@ -25549,16 +25549,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,10 +25789,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,19 +25831,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>62.35543909865365</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>226.4057028288546</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>6.310863011585866</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,13 +26071,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>213.9188905722449</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>941637.3568737783</v>
+        <v>941637.356873778</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>941637.356873778</v>
+        <v>941637.3568737783</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>941637.356873778</v>
+        <v>941637.3568737782</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>941637.356873778</v>
+        <v>941637.3568737782</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>941637.356873778</v>
+        <v>941637.3568737783</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>941637.3568737782</v>
+        <v>941637.3568737783</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>941637.3568737782</v>
+        <v>941637.356873778</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>941637.3568737783</v>
+        <v>941637.3568737782</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>941637.3568737782</v>
+        <v>941637.3568737779</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>941637.3568737783</v>
+        <v>941637.3568737782</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>492625.0619185701</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="E2" t="n">
-        <v>484287.9598140038</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="F2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="G2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="H2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="I2" t="n">
         <v>484287.9598140035</v>
       </c>
-      <c r="H2" t="n">
-        <v>484287.9598140035</v>
-      </c>
-      <c r="I2" t="n">
-        <v>484287.9598140037</v>
-      </c>
       <c r="J2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="K2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="L2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="M2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="N2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="O2" t="n">
         <v>484287.9598140037</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>484287.9598140037</v>
-      </c>
-      <c r="O2" t="n">
-        <v>484287.9598140036</v>
-      </c>
-      <c r="P2" t="n">
-        <v>484287.9598140036</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5.307101673679426e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.100233243458205e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551168</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820632</v>
+        <v>93403.78684820642</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820639</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26451,7 +26451,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685509</v>
       </c>
       <c r="O4" t="n">
         <v>14216.75207685505</v>
@@ -26479,10 +26479,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-1037457.411218622</v>
       </c>
       <c r="C6" t="n">
-        <v>291287.3345089706</v>
+        <v>291287.3345089704</v>
       </c>
       <c r="D6" t="n">
-        <v>291287.3345089703</v>
+        <v>291287.33450897</v>
       </c>
       <c r="E6" t="n">
-        <v>43536.21610588621</v>
+        <v>43501.47818045069</v>
       </c>
       <c r="F6" t="n">
-        <v>368948.6779132416</v>
+        <v>368913.9399878054</v>
       </c>
       <c r="G6" t="n">
-        <v>368948.6779132413</v>
+        <v>368913.9399878058</v>
       </c>
       <c r="H6" t="n">
-        <v>368948.6779132413</v>
+        <v>368913.939987806</v>
       </c>
       <c r="I6" t="n">
-        <v>368948.6779132415</v>
+        <v>368913.9399878056</v>
       </c>
       <c r="J6" t="n">
-        <v>151417.4755159638</v>
+        <v>151382.7375905283</v>
       </c>
       <c r="K6" t="n">
-        <v>368948.6779132413</v>
+        <v>368913.9399878057</v>
       </c>
       <c r="L6" t="n">
-        <v>368948.6779132414</v>
+        <v>368913.9399878057</v>
       </c>
       <c r="M6" t="n">
-        <v>283893.6499777296</v>
+        <v>283858.9120522941</v>
       </c>
       <c r="N6" t="n">
-        <v>368948.6779132415</v>
+        <v>368913.9399878056</v>
       </c>
       <c r="O6" t="n">
-        <v>368948.6779132414</v>
+        <v>368913.9399878058</v>
       </c>
       <c r="P6" t="n">
-        <v>368948.6779132414</v>
+        <v>368913.9399878058</v>
       </c>
     </row>
   </sheetData>
@@ -26719,7 +26719,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.962624854435923e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,34 +26787,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,10 +27382,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>377.9418368861302</v>
+        <v>111.4435131414779</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27594,16 +27594,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>191.5847619455814</v>
+        <v>40.92862641613075</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>7.755643479696573</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>29.42344096330777</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>132.8841445749435</v>
+        <v>154.857619105687</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>167.7205030288973</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>94.93667516389159</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,16 +28014,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>214.5414662356952</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>159.6457400831803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>8.115210091221213e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31835,31 +31835,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,31 +32066,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>597.1709559744729</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200299</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192546</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,31 +33251,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,31 +33971,31 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34208,31 +34208,31 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,10 +34442,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,31 +35483,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394598</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>455.0369220524547</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366966</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,28 +35957,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359212</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,16 +36914,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998944</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
